--- a/template.xlsx
+++ b/template.xlsx
@@ -17,10 +17,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
-    <t>这是标题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -109,6 +105,10 @@
   </si>
   <si>
     <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$_title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +248,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -272,7 +272,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -593,9 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.25" defaultRowHeight="14.25"/>
   <cols>
@@ -616,7 +614,7 @@
     <row r="2" spans="2:10" s="2" customFormat="1" ht="11.85" customHeight="1"/>
     <row r="3" spans="2:10" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="B3" s="7" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -629,60 +627,60 @@
     </row>
     <row r="4" spans="2:10" s="2" customFormat="1" ht="13.5" customHeight="1">
       <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:10" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:10" s="2" customFormat="1" ht="11.85" customHeight="1">
@@ -763,7 +761,7 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -775,7 +773,7 @@
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -783,30 +781,30 @@
     <row r="5" spans="2:4">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="1"/>
       <c r="C7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
